--- a/Data/Temp/Reports/ZEUFI037-Turkey-2025 02.xlsx
+++ b/Data/Temp/Reports/ZEUFI037-Turkey-2025 02.xlsx
@@ -40,6 +40,30 @@
     <t/>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1350101001</t>
+  </si>
+  <si>
+    <t>RECEIVABL.FROM PERS.</t>
+  </si>
+  <si>
+    <t>0021455785</t>
+  </si>
+  <si>
+    <t>Hatice ÜNAL</t>
+  </si>
+  <si>
+    <t>CC00</t>
+  </si>
+  <si>
+    <t>Yibitaş Çimento Centr.Services</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -53,30 +77,6 @@
   </si>
   <si>
     <t>WAGE ADV.GIVEN PERS.</t>
-  </si>
-  <si>
-    <t>0021455785</t>
-  </si>
-  <si>
-    <t>Hatice ÜNAL</t>
-  </si>
-  <si>
-    <t>CC00</t>
-  </si>
-  <si>
-    <t>Yibitaş Çimento Centr.Services</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1350101001</t>
-  </si>
-  <si>
-    <t>RECEIVABL.FROM PERS.</t>
   </si>
   <si>
     <t>2500000767</t>
@@ -658,61 +658,61 @@
         <v>10</v>
       </c>
       <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1625.25</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.00</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3">
-        <v>1625.25</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0.00</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>16</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -765,13 +765,13 @@
         <v>0.00</v>
       </c>
       <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>19</v>
-      </c>
-      <c r="S3" t="s">
-        <v>18</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -780,13 +780,13 @@
         <v>21</v>
       </c>
       <c r="V3" s="3">
-        <v>0.00</v>
+        <v>1625.25</v>
       </c>
       <c r="W3" s="3">
         <v>0.00</v>
       </c>
       <c r="X3" s="3">
-        <v>1625.25</v>
+        <v>0.00</v>
       </c>
       <c r="Y3" s="3">
         <v>0.00</v>
@@ -816,16 +816,16 @@
         <v>8</v>
       </c>
       <c r="AH3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>16</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -878,19 +878,19 @@
         <v>0.00</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="U4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="V4" s="3">
         <v>0.00</v>
@@ -991,19 +991,19 @@
         <v>0.00</v>
       </c>
       <c r="Q5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V5" s="3">
         <v>1129.50</v>
@@ -1104,19 +1104,19 @@
         <v>0.00</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="U6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="V6" s="3">
         <v>0.00</v>
@@ -1217,19 +1217,19 @@
         <v>0.00</v>
       </c>
       <c r="Q7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V7" s="3">
         <v>2351.25</v>
@@ -1330,19 +1330,19 @@
         <v>0.00</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="U8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="V8" s="3">
         <v>0.00</v>
@@ -1387,10 +1387,10 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="s">
         <v>16</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1443,19 +1443,19 @@
         <v>0.00</v>
       </c>
       <c r="Q9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V9" s="3">
         <v>15303.00</v>
@@ -1500,10 +1500,10 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="s">
         <v>16</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1613,10 +1613,10 @@
         <v>48</v>
       </c>
       <c r="AJ10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="s">
         <v>16</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1669,13 +1669,13 @@
         <v>0.00</v>
       </c>
       <c r="Q11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R11" t="s">
         <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T11" t="s">
         <v>45</v>
@@ -1726,10 +1726,10 @@
         <v>48</v>
       </c>
       <c r="AJ11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="s">
         <v>16</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1782,7 +1782,7 @@
         <v>0.00</v>
       </c>
       <c r="Q12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R12" t="s">
         <v>50</v>
@@ -1839,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="AJ12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="s">
         <v>16</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1895,7 +1895,7 @@
         <v>0.00</v>
       </c>
       <c r="Q13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R13" t="s">
         <v>59</v>
@@ -1952,10 +1952,10 @@
         <v>8</v>
       </c>
       <c r="AJ13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="s">
         <v>16</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2008,7 +2008,7 @@
         <v>0.00</v>
       </c>
       <c r="Q14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R14" t="s">
         <v>59</v>
@@ -2065,10 +2065,10 @@
         <v>8</v>
       </c>
       <c r="AJ14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="s">
         <v>16</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2178,10 +2178,10 @@
         <v>8</v>
       </c>
       <c r="AJ15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="s">
         <v>16</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:37">
